--- a/excel/data_excel/AutoMagic.xlsx
+++ b/excel/data_excel/AutoMagic.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="AutoMagic" localSheetId="0">Sheet1!$A$3:$AP$39</definedName>
+    <definedName name="AutoMagic" localSheetId="0">Sheet1!$C$3:$AR$39</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -694,2159 +694,2393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP39"/>
+  <dimension ref="A1:AR39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="40" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="42" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>18</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>19</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>20</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>21</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>22</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI3" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM3" t="s">
         <v>36</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AN3" t="s">
         <v>37</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AO3" t="s">
         <v>38</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AQ3" t="s">
         <v>40</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AR3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>15</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>300</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>43</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
       <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>40</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>30</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>300</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>43</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>2</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>2</v>
       </c>
-      <c r="AB5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="AD5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>60</v>
       </c>
-      <c r="H6">
-        <v>45</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
+      <c r="J6">
+        <v>45</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>300</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>43</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>3</v>
       </c>
-      <c r="AB6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="AD6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="C7" t="s">
+        <v>48</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>15</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>301</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>43</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
       <c r="Q7">
         <v>1</v>
       </c>
-      <c r="AB7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>49</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>40</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>30</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>301</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>43</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>2</v>
       </c>
-      <c r="AB8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="AD8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>60</v>
       </c>
-      <c r="H9">
-        <v>45</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
+      <c r="J9">
+        <v>45</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>301</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>43</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
         <v>3</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>3</v>
       </c>
-      <c r="AB9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="AD9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>51</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>15</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>3</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>302</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>43</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>2</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>40</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>30</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>2</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>302</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>43</v>
-      </c>
-      <c r="O11">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>2</v>
       </c>
       <c r="Q11">
         <v>2</v>
       </c>
-      <c r="AB11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>60</v>
       </c>
-      <c r="H12">
-        <v>45</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
+      <c r="J12">
+        <v>45</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>302</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>43</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>2</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>3</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>3</v>
       </c>
-      <c r="AB12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="AD12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>54</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>3</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>6</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>303</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>55</v>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <v>5</v>
       </c>
-      <c r="AB13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="AD13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>56</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>11</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>8</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>5</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>303</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>55</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>6</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>10</v>
       </c>
-      <c r="AB14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="AD14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>57</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>27</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>20</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>4</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>303</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>55</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>11</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>20</v>
       </c>
-      <c r="AB15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="AD15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="C16" t="s">
+        <v>58</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>43</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>35</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>3</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>303</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>55</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>21</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>30</v>
       </c>
-      <c r="AB16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="AD16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>59</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>59</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>51</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>2</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>303</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>55</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>31</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>40</v>
       </c>
-      <c r="AB17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="AD17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>75</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>67</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
         <v>303</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>55</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>41</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>60</v>
       </c>
-      <c r="AB18" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="AD18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+      <c r="C19" t="s">
+        <v>61</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>3</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>2</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>4</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>303</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>62</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
         <v>5</v>
       </c>
-      <c r="AB19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="AD19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="C20">
-        <v>100</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="C20" t="s">
+        <v>63</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>12</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>9</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>3</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>303</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>62</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>5</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>10</v>
       </c>
-      <c r="AB20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="AD20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
+      <c r="C21" t="s">
+        <v>64</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>23</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>16</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>2</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>303</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>62</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>11</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>20</v>
       </c>
-      <c r="AB21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="AD21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="C22" t="s">
+        <v>65</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>34</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>26</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>2</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>303</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>62</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>21</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>30</v>
       </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22" t="s">
         <v>66</v>
       </c>
-      <c r="AB22" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="AD22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>67</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
       <c r="H23">
+        <v>45</v>
+      </c>
+      <c r="J23">
         <v>37</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
         <v>303</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>62</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>31</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>40</v>
       </c>
-      <c r="Z23">
-        <v>1</v>
-      </c>
-      <c r="AA23" t="s">
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="s">
         <v>66</v>
       </c>
-      <c r="AB23" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="AD23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="C24">
-        <v>100</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+      <c r="C24" t="s">
+        <v>68</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>56</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>48</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <v>303</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>62</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>41</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>60</v>
       </c>
-      <c r="Z24">
-        <v>1</v>
-      </c>
-      <c r="AA24" t="s">
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="s">
         <v>66</v>
       </c>
-      <c r="AB24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="AD24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>69</v>
       </c>
-      <c r="C25">
-        <v>100</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>67</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>59</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
         <v>303</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>62</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>61</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>80</v>
       </c>
-      <c r="Z25">
-        <v>1</v>
-      </c>
-      <c r="AA25" t="s">
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="s">
         <v>66</v>
       </c>
-      <c r="AB25" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="AD25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="C26">
-        <v>100</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="C26" t="s">
+        <v>70</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>3</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>8</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>304</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>71</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>5</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>10</v>
       </c>
-      <c r="AB26" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="AD26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
         <v>72</v>
       </c>
-      <c r="C27">
-        <v>100</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
+      <c r="C27" t="s">
+        <v>72</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>18</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>13</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>7</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>304</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>71</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>8</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>15</v>
       </c>
-      <c r="AB27" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="AD27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>73</v>
       </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
+      <c r="C28" t="s">
+        <v>73</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>28</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>21</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>6</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>304</v>
       </c>
-      <c r="N28" t="s">
+      <c r="P28" t="s">
         <v>71</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>16</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>30</v>
       </c>
-      <c r="AB28" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="AD28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
         <v>74</v>
       </c>
-      <c r="C29">
-        <v>100</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="C29" t="s">
+        <v>74</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>39</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>31</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>5</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>304</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
         <v>71</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>25</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>35</v>
       </c>
-      <c r="AB29" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="AD29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
         <v>75</v>
       </c>
-      <c r="C30">
-        <v>100</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
       </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>50</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>42</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>4</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>304</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>71</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>35</v>
       </c>
-      <c r="Q30">
-        <v>45</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="S30">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
         <v>76</v>
       </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
+      <c r="C31" t="s">
+        <v>76</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>10</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>5</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>3</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>304</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>77</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>15</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>30</v>
       </c>
-      <c r="R31" t="s">
+      <c r="T31" t="s">
         <v>78</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>10</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>20</v>
       </c>
-      <c r="AB31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="AD31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
         <v>79</v>
       </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
+      <c r="C32" t="s">
+        <v>79</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>18</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>13</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>3</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>304</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" t="s">
         <v>77</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>31</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>60</v>
       </c>
-      <c r="R32" t="s">
+      <c r="T32" t="s">
         <v>78</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>21</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>30</v>
       </c>
-      <c r="AB32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="AD32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
         <v>80</v>
       </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
+      <c r="C33" t="s">
+        <v>80</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>30</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>23</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>2</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>304</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
         <v>77</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>61</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>80</v>
       </c>
-      <c r="R33" t="s">
+      <c r="T33" t="s">
         <v>78</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>31</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <v>40</v>
       </c>
-      <c r="AB33" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="AD33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
+      <c r="C34" t="s">
+        <v>81</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>42</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>34</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>2</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>304</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
         <v>77</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>81</v>
       </c>
-      <c r="Q34">
-        <v>100</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="S34">
+        <v>100</v>
+      </c>
+      <c r="T34" t="s">
         <v>78</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>41</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>50</v>
       </c>
-      <c r="AB34" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="AD34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
         <v>82</v>
       </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
+      <c r="C35" t="s">
+        <v>82</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
         <v>50</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>42</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>2</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>304</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>77</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>101</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>121</v>
       </c>
-      <c r="R35" t="s">
+      <c r="T35" t="s">
         <v>78</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>51</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <v>65</v>
       </c>
-      <c r="Z35">
-        <v>1</v>
-      </c>
-      <c r="AA35" t="s">
+      <c r="AB35">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="s">
         <v>83</v>
       </c>
-      <c r="AB35" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="AD35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="C36">
-        <v>100</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
+      <c r="C36" t="s">
+        <v>84</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
       <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="J36">
         <v>3</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>3</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>305</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" t="s">
         <v>85</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>8</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>8</v>
       </c>
-      <c r="R36" t="s">
+      <c r="T36" t="s">
         <v>86</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <v>24</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <v>24</v>
       </c>
-      <c r="V36" t="s">
+      <c r="X36" t="s">
         <v>87</v>
       </c>
-      <c r="X36">
+      <c r="Z36">
         <v>75</v>
       </c>
-      <c r="Y36">
+      <c r="AA36">
         <v>75</v>
       </c>
-      <c r="AB36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="AD36" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
         <v>88</v>
       </c>
-      <c r="C37">
-        <v>100</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
+      <c r="C37" t="s">
+        <v>88</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <v>15</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>11</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>2</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>305</v>
       </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
         <v>85</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>16</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>16</v>
       </c>
-      <c r="R37" t="s">
+      <c r="T37" t="s">
         <v>86</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <v>48</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <v>48</v>
       </c>
-      <c r="V37" t="s">
+      <c r="X37" t="s">
         <v>87</v>
       </c>
-      <c r="X37">
+      <c r="Z37">
         <v>75</v>
       </c>
-      <c r="Y37">
+      <c r="AA37">
         <v>75</v>
       </c>
-      <c r="AB37" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="AD37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
         <v>89</v>
       </c>
-      <c r="C38">
-        <v>100</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
+      <c r="C38" t="s">
+        <v>89</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>25</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>18</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>2</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>305</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>85</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <v>32</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <v>32</v>
       </c>
-      <c r="R38" t="s">
+      <c r="T38" t="s">
         <v>86</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <v>72</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <v>72</v>
       </c>
-      <c r="V38" t="s">
+      <c r="X38" t="s">
         <v>87</v>
       </c>
-      <c r="X38">
-        <v>100</v>
-      </c>
-      <c r="Y38">
-        <v>100</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="Z38">
+        <v>100</v>
+      </c>
+      <c r="AA38">
+        <v>100</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
         <v>90</v>
       </c>
-      <c r="C39">
-        <v>100</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
       </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>33</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>25</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>2</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>305</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" t="s">
         <v>85</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>64</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>64</v>
       </c>
-      <c r="R39" t="s">
+      <c r="T39" t="s">
         <v>86</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <v>128</v>
       </c>
-      <c r="U39">
+      <c r="W39">
         <v>128</v>
       </c>
-      <c r="V39" t="s">
+      <c r="X39" t="s">
         <v>87</v>
       </c>
-      <c r="X39">
-        <v>100</v>
-      </c>
-      <c r="Y39">
-        <v>100</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP39">
+      <c r="Z39">
+        <v>100</v>
+      </c>
+      <c r="AA39">
+        <v>100</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR39">
         <v>0</v>
       </c>
     </row>
